--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1583214.812335322</v>
+        <v>-1586230.611985329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781859014</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15103820.04708045</v>
+        <v>15103820.04708044</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.4431097126473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>347.1623468380746</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>196.9203182758679</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>210.0392448351329</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.62332623081474</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.53436060286468</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.2527184985269</v>
+        <v>210.3214022536661</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>88.18421182873905</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>217.073896372979</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>44.92116967717942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.2557485598878</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>94.09750908037761</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>141.3865903334051</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>28.33530928504439</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>154.587786189131</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>265.7404602015688</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.2608801994917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>90.21683571239763</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>192.3581416134194</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>193.9026049121738</v>
       </c>
       <c r="V22" t="n">
-        <v>220.1783412264146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292652</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881762</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851122</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247769</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734103036</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.59371373186259</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.148488117499992</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.36993339924405</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652598</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652598</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652598</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652599</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308919</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652594</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569548</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065886</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652598</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.120802835249</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972049</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317887</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445517</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969979</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600555</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>892.2182157486518</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C2" t="n">
-        <v>892.2182157486518</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>892.2182157486518</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>892.2182157486518</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>885.2727149994483</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.033501463019</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.033501463019</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2267.033501463019</v>
       </c>
       <c r="W2" t="n">
-        <v>1668.957387788585</v>
+        <v>2267.033501463019</v>
       </c>
       <c r="X2" t="n">
-        <v>1668.957387788585</v>
+        <v>1893.567743201939</v>
       </c>
       <c r="Y2" t="n">
-        <v>1278.818055812774</v>
+        <v>1503.428411226128</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>129.230214752551</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>129.230214752551</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
       <c r="F7" t="n">
         <v>190.2718927217162</v>
@@ -4720,10 +4720,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>479.4455030671483</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1297.230130518035</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>928.267613577623</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.829970582156</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883532</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406189</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587816</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587816</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587816</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883532</v>
+        <v>365.6939024587816</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883532</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883532</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883532</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.5038042865474</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="C13" t="n">
-        <v>392.5676213586405</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.036057401182</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.351569195295</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.934399158335</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X13" t="n">
-        <v>963.9448482603173</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.1522691167871</v>
+        <v>655.3925893356336</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.8431224204016</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9069394924948</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5446,40 +5446,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104706</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104706</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230349</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024462</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987502</v>
+        <v>985.3633923523876</v>
       </c>
       <c r="X16" t="n">
-        <v>1123.138940987502</v>
+        <v>757.3738414543702</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.4915872506414</v>
+        <v>536.5812623108401</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,16 +5622,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.6423705955727</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="C19" t="n">
-        <v>510.7061876676659</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>1128.42450063712</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X19" t="n">
-        <v>900.4349497391029</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y19" t="n">
-        <v>679.6423705955727</v>
+        <v>682.2576395672671</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>243.4741280307875</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1760.4822490217</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.321892939535</v>
+        <v>1505.797760815813</v>
       </c>
       <c r="W22" t="n">
-        <v>873.9047229025747</v>
+        <v>1216.380590778852</v>
       </c>
       <c r="X22" t="n">
-        <v>645.9151720045573</v>
+        <v>988.3910398808349</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.1225928610272</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277716</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563069</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811476</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483398</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542177</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232737</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494863</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468567</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939011</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919357</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320206</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454334</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.0000320088</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426853</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902954</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6099,19 +6099,19 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.5895482553301</v>
+        <v>481.6968904858284</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>312.7607075579215</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>312.7607075579215</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>164.8476139755284</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>164.8476139755284</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>164.8476139755284</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953295</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442051</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927004</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518525</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952183</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="S25" t="n">
-        <v>1864.342818844555</v>
+        <v>1764.657581931524</v>
       </c>
       <c r="T25" t="n">
-        <v>1642.576203414082</v>
+        <v>1542.890966501049</v>
       </c>
       <c r="U25" t="n">
-        <v>1353.473336539725</v>
+        <v>1253.788099626693</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.788848333838</v>
+        <v>999.1036114208063</v>
       </c>
       <c r="W25" t="n">
-        <v>809.3716782968776</v>
+        <v>709.6864413838457</v>
       </c>
       <c r="X25" t="n">
-        <v>581.3821273988602</v>
+        <v>481.6968904858284</v>
       </c>
       <c r="Y25" t="n">
-        <v>360.5895482553301</v>
+        <v>481.6968904858284</v>
       </c>
     </row>
     <row r="26">
@@ -6215,43 +6215,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192679</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014792</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355954</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068031</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694731</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,58 +6516,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756277</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468501</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.26674795153</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.79962768589</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T30" t="n">
         <v>2244.643795685161</v>
@@ -6585,7 +6585,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319355</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656844</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150045</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942672</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580126</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311343</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656418</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382523</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973202</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.68550859406</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582394</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
     <row r="32">
@@ -6689,43 +6689,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192676</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014792</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355954</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068001</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694701</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756276</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468501</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.26674795153</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.79962768589</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T33" t="n">
         <v>2244.643795685161</v>
@@ -6822,7 +6822,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319355</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656844</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150012</v>
+        <v>656.9646031150043</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942669</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311342</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656418</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382523</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973202</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.68550859406</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582394</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
     <row r="35">
@@ -6920,43 +6920,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192679</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332368</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014764</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068003</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6990,58 +6990,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756277</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468501</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589166</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589166</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.79962768589</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T36" t="n">
         <v>2244.643795685161</v>
@@ -7059,7 +7059,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319341</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311336</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656417</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382523</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973201</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931279</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.84004983829</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594059</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518754</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582392</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400518</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192679</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014764</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068003</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756277</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468501</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1700.311647517221</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.79962768589</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T39" t="n">
         <v>2244.643795685161</v>
@@ -7296,7 +7296,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319355</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656844</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150045</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942672</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580127</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311342</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.31744497929</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656419</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382524</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973203</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.68550859406</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582394</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192679</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014792</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355954</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068031</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273942</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803952</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516177</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167379</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.57851463621</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.79962768589</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T42" t="n">
         <v>2244.643795685161</v>
@@ -7533,7 +7533,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531935</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565684</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150041</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311342</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656418</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382523</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973202</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594059</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192679</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111742</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075861</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014792</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355954</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068031</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694731</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,58 +7701,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273942</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803952</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516177</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167379</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793934</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793934</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237706</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732777</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.42163310766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T45" t="n">
         <v>2244.643795685161</v>
@@ -7770,7 +7770,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319353</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656842</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150043</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942669</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954153</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380738</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311342</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979289</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656418</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382524</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973202</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717221</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.78173493128</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.45684754784</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532437</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838291</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594059</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518755</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400519</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747064</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836477018</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-2.802380549837835e-11</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-2.97859514830634e-11</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-2.76259015663527e-11</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-2.773958840407431e-11</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2.796696207951754e-11</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-2.802380549837835e-11</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>240.2907319508333</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.62182318272039</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.926990152596355e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>257.8765289205685</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>71.1218691999062</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>20.78253813502221</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.32377315260311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>77.02998538623021</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>94.16485672317162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>92.30923329343912</v>
       </c>
       <c r="V22" t="n">
-        <v>31.95930209741337</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>76.16130118245825</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983829</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004763</v>
       </c>
       <c r="S25" t="n">
-        <v>187.6205372139419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1217993.093984944</v>
+        <v>1217993.093984945</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1317326.495572928</v>
+        <v>1317326.495572927</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>119124.536066095</v>
       </c>
       <c r="F2" t="n">
-        <v>119124.536066095</v>
+        <v>119124.5360660949</v>
       </c>
       <c r="G2" t="n">
         <v>119124.536066095</v>
       </c>
       <c r="H2" t="n">
+        <v>119124.536066095</v>
+      </c>
+      <c r="I2" t="n">
         <v>119124.5360660949</v>
-      </c>
-      <c r="I2" t="n">
-        <v>119124.536066095</v>
       </c>
       <c r="J2" t="n">
         <v>121071.9899535009</v>
@@ -26341,19 +26341,19 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.071818242392813e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735911</v>
+        <v>376527.1335735941</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363538</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363137</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139117.6974810172</v>
+        <v>139117.6974810173</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924296</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709208</v>
       </c>
       <c r="J4" t="n">
         <v>4457.648636658129</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975111</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975109</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975113</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975112</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975112</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975111</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26488,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702740.3763114898</v>
+        <v>-702972.9094286927</v>
       </c>
       <c r="C6" t="n">
         <v>-151909.4089761967</v>
@@ -26528,40 +26528,40 @@
         <v>-151909.4089761967</v>
       </c>
       <c r="E6" t="n">
-        <v>-726256.0041781171</v>
+        <v>-726323.1996683426</v>
       </c>
       <c r="F6" t="n">
-        <v>1121.409815289429</v>
+        <v>1054.214325063637</v>
       </c>
       <c r="G6" t="n">
-        <v>1121.409815289429</v>
+        <v>1054.214325063622</v>
       </c>
       <c r="H6" t="n">
-        <v>1121.409815289386</v>
+        <v>1054.214325063651</v>
       </c>
       <c r="I6" t="n">
-        <v>1121.409815289488</v>
+        <v>1054.214325066212</v>
       </c>
       <c r="J6" t="n">
-        <v>-361035.3220806554</v>
+        <v>-361070.0600060941</v>
       </c>
       <c r="K6" t="n">
-        <v>-11884.07626765638</v>
+        <v>-11884.07626765959</v>
       </c>
       <c r="L6" t="n">
-        <v>7543.641725975467</v>
+        <v>7543.64172597586</v>
       </c>
       <c r="M6" t="n">
-        <v>-122098.6731129692</v>
+        <v>-122098.673112969</v>
       </c>
       <c r="N6" t="n">
-        <v>7543.641725975525</v>
+        <v>7543.641725975802</v>
       </c>
       <c r="O6" t="n">
-        <v>7543.641725975496</v>
+        <v>7543.641725975773</v>
       </c>
       <c r="P6" t="n">
-        <v>-11884.07626765629</v>
+        <v>-11884.07626765559</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,28 +26756,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593295</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341679</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203922</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.229624077282202e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483791</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.456968210637569e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>19.52800208178988</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>139.2017238822801</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>53.99214678739762</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.88668742006656</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.98522015752673</v>
+        <v>175.9165364023875</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>57.23683619419219</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>7.961209085105253</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>309.7618719435035</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752525</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>52.33645356619157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>145.1364080031859</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203925</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203925</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203924</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203929</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203926</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681583</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844653</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974794</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953976</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003791</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623196</v>
+        <v>691.356529362317</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574969</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990094997</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099035</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746392</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781674</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806918</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451114</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345266</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502559</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798524</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752231</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353145</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138779</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233455</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166838034</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002912</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987477</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905536</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238302</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898467</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.154213684046221</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430531</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311873</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451741999</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297385</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702017</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909881</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316422</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883105</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085992</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802161</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895875</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712186</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553025</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112267</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780291</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>405.6377363145646</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437271</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M33" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145646</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437271</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862151</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107613</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071815</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>340.4395077511101</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007753</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M42" t="n">
-        <v>414.6448185524877</v>
+        <v>338.1920576279086</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071815</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348455</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135363</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663301</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162596</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175713</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159465</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460065</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236539</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669247</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204374</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078763</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521112</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007753</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420766</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473098</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862151</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388320934</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.876578621472</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418568</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674246</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121579</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869305</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588168</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392061</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106803</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417327</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35814,7 +35814,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.856946167542</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407851</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265633</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923298</v>
       </c>
       <c r="M23" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302242</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129088</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359185</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908524</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636226</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152063</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597637</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609555</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340037</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013271</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004701</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859627</v>
+        <v>313.635950985961</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306577</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443188</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701972</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934828</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.856946167539</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226389</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451096</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789312</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902986</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243197</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924471</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>274.2960242312312</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992827</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016753</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111722</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930859</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198086</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986654</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902986</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512242899</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924751</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312312</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992827</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016753</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111722</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930859</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198086</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986654</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462448</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902986</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243197</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924751</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641967</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663168</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016753</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111721</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930859</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198086</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986654</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902709</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243197</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924751</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238482</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>197.8432633066657</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016753</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111721</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930859</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198086</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986654</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902986</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243197</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683563</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924751</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775313</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M42" t="n">
-        <v>272.5107846304694</v>
+        <v>196.0580237058903</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238482</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549934</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016754</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111722</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.557074493086</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980861</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986655</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919385</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318108</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396438</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367798</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462724</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902986</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193557</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243197</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924471</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600775313</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754099</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674356</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641967</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876489</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071418</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.617838762509</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549933</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016753</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111721</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930859</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819482</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198086</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986654</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
